--- a/PLSstatic_predicted_factors_matrix_11.xlsx
+++ b/PLSstatic_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.7010841025013125</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.5947500599365718</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.5130307281867902</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.4538332991985031</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.415028908563544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.3946561294421314</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.3907007775484165</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.4011366576909259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.4239682150209939</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.4572670932830148</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.4992003727506542</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.5480523698101634</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.6022391194164555</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.6603170738311431</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.72098706620179</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.783094508047721</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.8456266628171615</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.9077077020880197</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.9685921247690794</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.027657055110415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.084392992378078</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.138396357631398</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.189359223442181</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.237060095497118</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.280805694386348</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.320439803953996</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.356529711463548</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.389135699992862</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.417710143783598</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.443045408744595</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.46530648162324</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.484677221518632</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.501355601296795</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.515548051110436</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.527464881946191</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.537978937238087</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.546581412972401</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.553484866486223</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.558893581887206</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.563001641360495</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.565991800685624</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-1.568034341743207</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-1.569287094808811</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-1.569894697861947</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>-1.067448863559192</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.168958133146335</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.247812041789988</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.304622567087199</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.338285140057395</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.349798626429719</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.340841401010344</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.313551591438969</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.270345918057713</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.213774958960096</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1.146410863547453</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1.070761392640941</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.9892069401681738</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.9039559382290692</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.817015090570421</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.7301714546091072</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.644983922275733</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.5627821006980652</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.4846709620615328</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.4115397910270407</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.3440753154396763</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.2827752378766524</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.2279655839190206</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1798179152176106</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1383835962497194</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.103748199345476</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.07577842976719099</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.05411247367704818</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.03838120490799422</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.02815319183388853</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.02291448879806848</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.02214474718553196</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.02532428575901473</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.03194230181461841</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.04150360613996553</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.05360026840066651</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.06775628049377687</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.08354912522302992</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1005846166293881</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1184998535095333</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1369645178180678</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1556817528241436</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.174387730385641</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.1928513642490993</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.4549876831145868</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.3365293243333093</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2291095010292006</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1329114537750266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04712276465137681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.02841094065610649</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.09395292147931873</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.149890872932749</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.1967171299750566</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.2350032913400641</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.2653753964365539</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.2884923173777141</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.3050276109503025</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.3156552596284924</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.3210387595389866</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.3218229368474086</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.3186278671382536</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.3120443529139245</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.3026305343183981</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.2909095877360395</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.2773664033577826</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.2624491017950816</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.246565526836154</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.2300838854582355</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.212935688549833</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.195472089760979</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.1784132410651755</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.161970484154812</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.1459682621518993</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.1309261197584743</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.1169453590484498</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.1040874785102942</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.09238960002058723</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.0818665894187809</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.07251385974314174</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.06447548154648713</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.05754185712246043</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.05166416972923778</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.04678914663930273</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.04285608201722569</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.03979878620219247</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.03754704628964037</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.03602869336144855</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.03517044636144993</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>0.4218436598064515</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.336543060006693</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2508292144731516</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.167354752954519</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.08751087262555342</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01278869885798916</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.05574979777301365</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.1174014265100647</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1717631440242391</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.2186790255158627</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.2581932446207624</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.2905079378989627</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.3159471444461319</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.33492600217003</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.3479247561641439</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.3554670231107734</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.3581017492420258</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.356388335850496</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.3508844649297032</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.3421363473422659</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.3306710026534169</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.3169888125082549</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.3015600708306644</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.2848212207517765</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.2666878931610188</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.2476188561616361</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.2285094092657038</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.2096206188333072</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.1907720344554101</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1726546629245573</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.1554107156305235</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1391565003271025</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.1239793097625071</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.1099405150779171</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.09707801509007302</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08561002467234405</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.07529450207953595</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.06612302614258125</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.05806996509955363</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.05109722238645458</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.04515649185996028</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.04019149519451358</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.03613943402465992</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.03293311936857424</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>-0.4344814668909522</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.3648115875222253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.3042477264697642</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.2532614153082267</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.2099369786443805</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1735444525677733</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.1432949004504502</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.1183941891995732</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.09807732247929246</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.08163110891813691</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.06840754933729243</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.05783058742860733</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.04939754870743876</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.04267704212399934</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.03730450282609944</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.03297631506501617</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.02944322543039711</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.02650356424870778</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.02399663612404595</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.02179826227184586</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.01980929104896498</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.01795734121055575</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.01618937347622106</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.01446973852045785</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.01267981525757225</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.01084263406038934</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.009069523102151016</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.007352996194595982</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.005644561203353562</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.004024427523759229</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.002487078980889123</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.00102497297470184</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0003657349224184146</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.00168689964122085</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.00294091307439961</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.004156133798974379</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.005333920999578921</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.006465917055429297</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.007544114146748796</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.008562560267610549</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.00951674820546409</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01040431952058557</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01122355668285469</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.01197385650570496</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>0.1650626466012665</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.1872956281018641</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2006768219848199</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2077100186937064</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2082976701105181</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2035419508404752</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1944902520270965</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1821142673815943</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1672937240301728</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1508067194623196</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1333265991975441</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1154231272528792</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.09756764010615124</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.08014056819712143</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.06344030044662</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.04769260488132383</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.03306004549016164</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.01965102318264961</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.007528212824623009</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.003283926336253575</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.01279127343890139</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.02102543104785467</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.0280373808033432</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.03389308054901358</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.03846980347880662</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.04181890062873762</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.04428827545800727</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.04597359122770445</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.0466782112630932</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.04683068120316972</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.04651236619452329</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.0457994974304846</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.04476391294657473</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.04347190160899073</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.04198354170935963</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.04061089492049848</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.03908853208994185</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.03746968143307867</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.0358005697514038</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.03412042594658074</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.03246219744262009</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.03085291715167844</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.02931475023581576</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.02786516307692502</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>0.4253969752781424</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.3560455818180517</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2975908925641091</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2501957910189149</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2109979426268515</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1790052955110643</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1532456684083528</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1327922747285246</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1167823562667029</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.104429754539493</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.09503183012059718</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.08797137975801857</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.08271503942665286</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.07880921410953101</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.07587445450569881</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.07359897145683671</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.07173177040092321</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.07007572591510222</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.06848080268726606</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.06683844199442301</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.06507265620944867</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.06313721924595403</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.06100940502600929</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.05868607125487479</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.05589823581712403</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.05270896504442411</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.04947778224977514</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.04623070345330831</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.04275097786682361</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0393664244473055</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.03610072955112933</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.03297479017552768</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.03000772017664356</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.02721609368188645</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.02461265332489167</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.02233255169898282</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0202236294940629</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.01829495534901034</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.01655250453775147</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01499900856979165</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.01363436326034788</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.01245552536963999</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.01149185157974061</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.01066667397629287</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>0.2767065950718817</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.2395450555659985</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1992169017537655</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1588164637028722</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.118845996566264</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.08070011497657367</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.04541069523216134</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.01369131463840405</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.01401621838611522</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.03749540479430098</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.05671109618019599</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.07176916022586566</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.0828812505201212</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.09033479280769484</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.09446802010070009</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.09564960792241936</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.09426233839200421</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.09069020267240802</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.08530839158192573</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.07847580681646499</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.07052916596489964</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.06177918785480463</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.05250811162861762</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.04296828334184843</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.03318968418058052</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.02347594865233379</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.01420786810634254</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.00549781145397746</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.002586031596920514</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.009916436950278579</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.01646434227524898</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.02221785071850148</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.02718031991355239</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.03136785239474366</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.03480719746428644</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.03772299905970474</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.03995019246143537</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0415322867112244</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.04251808100532141</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.04295973096130783</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.04291136082478392</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0424278689324717</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.04155515318944852</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.04036420298019271</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.127752747048456</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.1394778322406951</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1382221620249791</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1291431582705659</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1139578073853169</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.09502003233670013</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.07415614365579147</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.05276350044645827</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.03188738213151204</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0122839200894595</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.00552691106578468</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.02121639172312566</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.03460853917767526</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.0456471929754469</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.05436806252327941</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.06087521106711096</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.06532150056713038</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.06789254358264257</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.06879372311530761</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.06824020203626119</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.06644757403277018</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.06362729395430131</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.05998135963209243</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.05569930011603061</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.05054028186656755</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.04479603960290655</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.03911238130548935</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.03356913682723672</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.02795591715691316</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.02271781978657984</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.01787659980154289</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.01344823344591436</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.009442875518314811</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.005864470149284399</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.002710555027030069</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.320688735976e-06</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.002343841061117394</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.004308129684580873</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.005911635443075805</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.007171821922502814</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.008109896750356246</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.008750003223644554</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.009118547902671748</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.009241263503493954</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>0.04493637489188766</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.01863742021167531</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00388670082155724</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.003220620354673238</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.005665620121685741</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.005342582470512617</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.003571695136348255</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.00123732188380635</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.001096811920404014</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.003097507589875296</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.00459372848689535</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.00552443314511516</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.00590039575384481</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.005776475479137216</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.005231840908596939</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.004356181014503636</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.003240372389491305</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.001970426659472513</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0006238216462916941</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.0007322256290836513</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.002042062513280297</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.003261346989459801</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.004356307883358838</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.005302634189133845</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.006002655463897723</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.006432000301389441</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.006699128788959759</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.006812641089834448</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.006668598313575093</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.006424107676807225</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.006089311545727605</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.0056765137101768</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.005198715553870372</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.004668697853889963</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.004098795016006186</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.003563715326617367</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.002988517889580946</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.002385405048740119</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.001767922642030209</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.001147564168883954</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.0005340458304140909</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>6.452748322839977e-05</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0006412358603283582</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.001190477708518723</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -635,6 +2054,135 @@
       </c>
       <c r="E12" t="n">
         <v>0.04351997231996176</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0179409886447172</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.00463139631163439</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.001577296757542257</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.00363058290274366</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.003237623901582461</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.001434889348932974</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.001119716197047012</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.003999868854951435</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.006936003561556971</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.009746880420364985</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.01231569239235122</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.01457049176225698</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.01647146910428247</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.01800222760575686</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.01916350182674448</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.01996845733542188</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.02043907840077598</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.02060334962561015</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.02050099896406811</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.02015398496725393</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.01959890370996109</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.01887070548067793</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.01801057647413329</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.01689609186327276</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.01560809304844307</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.01436010413324161</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.01314186311095136</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.01184753682285943</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.01064496202664545</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.009532227541061009</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.008497272600880108</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.007540801466737121</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.006668143362181639</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.005872094524590405</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.005197731465065724</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.00457765915768855</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.004016083925130099</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.003518328353404201</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.003085862368773578</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.002721574241528414</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.002417495535626492</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.002171216906773992</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.00197918447703086</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_factors_matrix_11.xlsx
+++ b/PLSstatic_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-1.569287094808811</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-1.569894697861947</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>-0.174387730385641</v>
       </c>
-      <c r="AV3" t="n">
-        <v>-0.1928513642490993</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>-0.03602869336144855</v>
       </c>
-      <c r="AV4" t="n">
-        <v>-0.03517044636144993</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.03613943402465992</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.03293311936857424</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.01122355668285469</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.01197385650570496</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.02931475023581576</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.02786516307692502</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>0.01149185157974061</v>
       </c>
-      <c r="AV8" t="n">
-        <v>0.01066667397629287</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>0.04155515318944852</v>
       </c>
-      <c r="AV9" t="n">
-        <v>0.04036420298019271</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.009118547902671748</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.009241263503493954</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>0.0006412358603283582</v>
       </c>
-      <c r="AV11" t="n">
-        <v>0.001190477708518723</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2180,9 +2147,6 @@
       </c>
       <c r="AU12" t="n">
         <v>0.002171216906773992</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0.00197918447703086</v>
       </c>
     </row>
   </sheetData>
